--- a/src/ArchivosC2/MatrizGrafo.xlsx
+++ b/src/ArchivosC2/MatrizGrafo.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\NetBeansProjects\AlgorithmDesign\src\ArchivosC2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOG-A313-E-012\Documents\NetBeansProjects\AlgorithmDesign\src\ArchivosC2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F6FDAF-9CEB-4189-BF81-2ACCFFAF958C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,11 +337,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="A1:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,4 +980,1255 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>11</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1">
+        <v>13</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>6</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1">
+        <v>10</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>9</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>9</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>8</v>
+      </c>
+      <c r="M14" s="1">
+        <v>7</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="array" ref="A16:N29">MMULT($A1:$N14,$A1:$N14)</f>
+        <v>413</v>
+      </c>
+      <c r="B16">
+        <v>180</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>284</v>
+      </c>
+      <c r="E16" s="1">
+        <v>216</v>
+      </c>
+      <c r="F16" s="1">
+        <v>328</v>
+      </c>
+      <c r="G16" s="1">
+        <v>190</v>
+      </c>
+      <c r="H16" s="1">
+        <v>170</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>180</v>
+      </c>
+      <c r="B17" s="1">
+        <v>889</v>
+      </c>
+      <c r="C17" s="1">
+        <v>276</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>344</v>
+      </c>
+      <c r="F17" s="1">
+        <v>288</v>
+      </c>
+      <c r="G17" s="1">
+        <v>357</v>
+      </c>
+      <c r="H17" s="1">
+        <v>306</v>
+      </c>
+      <c r="I17" s="1">
+        <v>42</v>
+      </c>
+      <c r="J17" s="1">
+        <v>28</v>
+      </c>
+      <c r="K17" s="1">
+        <v>154</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>276</v>
+      </c>
+      <c r="C18" s="1">
+        <v>233</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>130</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>284</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>290</v>
+      </c>
+      <c r="E19" s="1">
+        <v>289</v>
+      </c>
+      <c r="F19" s="1">
+        <v>210</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>19</v>
+      </c>
+      <c r="K19" s="1">
+        <v>13</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>216</v>
+      </c>
+      <c r="B20" s="1">
+        <v>344</v>
+      </c>
+      <c r="C20" s="1">
+        <v>130</v>
+      </c>
+      <c r="D20" s="1">
+        <v>289</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1330</v>
+      </c>
+      <c r="F20" s="1">
+        <v>252</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>201</v>
+      </c>
+      <c r="J20" s="1">
+        <v>393</v>
+      </c>
+      <c r="K20" s="1">
+        <v>423</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>328</v>
+      </c>
+      <c r="B21" s="1">
+        <v>288</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>210</v>
+      </c>
+      <c r="E21" s="1">
+        <v>252</v>
+      </c>
+      <c r="F21" s="1">
+        <v>586</v>
+      </c>
+      <c r="G21" s="1">
+        <v>485</v>
+      </c>
+      <c r="H21" s="1">
+        <v>299</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>132</v>
+      </c>
+      <c r="K21" s="1">
+        <v>24</v>
+      </c>
+      <c r="L21" s="1">
+        <v>137</v>
+      </c>
+      <c r="M21" s="1">
+        <v>15</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>190</v>
+      </c>
+      <c r="B22" s="1">
+        <v>357</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>485</v>
+      </c>
+      <c r="G22" s="1">
+        <v>892</v>
+      </c>
+      <c r="H22" s="1">
+        <v>323</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>156</v>
+      </c>
+      <c r="K22" s="1">
+        <v>228</v>
+      </c>
+      <c r="L22" s="1">
+        <v>307</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>170</v>
+      </c>
+      <c r="B23" s="1">
+        <v>306</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>299</v>
+      </c>
+      <c r="G23" s="1">
+        <v>323</v>
+      </c>
+      <c r="H23" s="1">
+        <v>370</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>54</v>
+      </c>
+      <c r="M23" s="1">
+        <v>45</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>42</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>201</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>151</v>
+      </c>
+      <c r="J24" s="1">
+        <v>66</v>
+      </c>
+      <c r="K24" s="1">
+        <v>87</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1">
+        <v>393</v>
+      </c>
+      <c r="F25" s="1">
+        <v>132</v>
+      </c>
+      <c r="G25" s="1">
+        <v>156</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>66</v>
+      </c>
+      <c r="J25" s="1">
+        <v>609</v>
+      </c>
+      <c r="K25" s="1">
+        <v>359</v>
+      </c>
+      <c r="L25" s="1">
+        <v>108</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>154</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>13</v>
+      </c>
+      <c r="E26" s="1">
+        <v>423</v>
+      </c>
+      <c r="F26" s="1">
+        <v>24</v>
+      </c>
+      <c r="G26" s="1">
+        <v>228</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>87</v>
+      </c>
+      <c r="J26" s="1">
+        <v>359</v>
+      </c>
+      <c r="K26" s="1">
+        <v>515</v>
+      </c>
+      <c r="L26" s="1">
+        <v>120</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>137</v>
+      </c>
+      <c r="G27" s="1">
+        <v>307</v>
+      </c>
+      <c r="H27" s="1">
+        <v>54</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>108</v>
+      </c>
+      <c r="K27" s="1">
+        <v>120</v>
+      </c>
+      <c r="L27" s="1">
+        <v>281</v>
+      </c>
+      <c r="M27" s="1">
+        <v>86</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>45</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>86</v>
+      </c>
+      <c r="M28" s="1">
+        <v>74</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>83</v>
+      </c>
+      <c r="J29" s="1">
+        <v>80</v>
+      </c>
+      <c r="K29" s="1">
+        <v>72</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/ArchivosC2/MatrizGrafo.xlsx
+++ b/src/ArchivosC2/MatrizGrafo.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOG-A313-E-012\Documents\NetBeansProjects\AlgorithmDesign\src\ArchivosC2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOG-A408-E-016\Documents\NetBeansProjects\AlgorithmDesign\src\ArchivosC2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -986,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,4 +2232,227 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:T30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/ArchivosC2/MatrizGrafo.xlsx
+++ b/src/ArchivosC2/MatrizGrafo.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOG-A408-E-016\Documents\NetBeansProjects\AlgorithmDesign\src\ArchivosC2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\NetBeansProjects\AlgorithmDesign\src\ArchivosC2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D28D97-5C33-424A-916D-72372202CAAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -338,7 +345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -984,10 +991,233 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -2232,227 +2462,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:T30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/ArchivosC2/MatrizGrafo.xlsx
+++ b/src/ArchivosC2/MatrizGrafo.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\NetBeansProjects\AlgorithmDesign\src\ArchivosC2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D28D97-5C33-424A-916D-72372202CAAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7217C08-547C-4742-9B13-534E770355D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -995,7 +996,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1125,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1">
         <v>17</v>
@@ -1170,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1205,7 +1206,231 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B122DB-FAE5-423E-825A-D56B75B6C58E}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1213,12 +1438,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
